--- a/public/amusement.xlsx
+++ b/public/amusement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,578 +436,852 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>潮州新店‼️🆒 休闲好去处，码住！</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>#不辜负每个周末#室内娱乐休闲#打台球是一种生活#年轻人的潮玩圣地#休闲娱乐好去处#潮州探店#周末去哪玩</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1040g00831ahick4fna0g4a309lotu2outmna5ro!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>潮州民宿也太好看了吧‼️不晚驿站‼️</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>#性价比高酒店#潮州民宿#潮州打卡 ✔️潮州旅游推荐酒店！ 📍 不晚驿站（潮州古城店） ✅环境 	 1️⃣公共空间有独立空中花园🏕️，潮式茶几（都可以使用） 	 2️⃣有4只宠物猫咪🐱（爱猫人士必选）超乖🉑撸 3️⃣KTV唱歌设备、巨幕屏（可看电影🉑投影）可以开party、花园有桌子。 4️⃣位置距离牌坊街、西湖1公里左右（可停车🅿️、路边叫车方便，门口就有扫码电动车🛵） ✅客房 整体环境干净亮堂，管家随时在线！ 各种各样主题房、套房、标间 力荐：家庭亲子游‼️套房的双床很大 朋友聚会游‼️可以叫外卖、花园可以开party喝茶 团建‼️有大的客厅还有外场、都合适娱乐 	 ✅周边 牌坊街、西湖1.2公里 酒吧2公里 潮州电视台500米 南风里、商场（餐厅）2.5公里。 ‼️价格‼️很学生党‼️很经济‼️很高级‼️很度假⛱️ #学生党旅游住宿#酒店推荐#潮州打卡#潮州古城#潮州酒店#潮州名宿推荐#潮州好玩的地方推荐</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1040g00831amjv7tk7a1g5n6i0ng405td5ijhun0!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>深圳这个网球社群有点东西</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>胶己人俱乐部内部男双比赛圆满结束啦 感谢赞助商@深圳杉杉奥特莱斯广场 胶己人俱乐部成立于2023年5月9日，成员主要为在深/来深的潮汕籍网球爱好者，俱乐部定期举办各类网球比赛、训练营和活动，旨在提高爱好者们的网球水平，更是凝聚在外潮汕人的团结。 俱乐部注重活动的娱乐性，人员的粘性，在提高网球水平和网球技术的同时,营造积极健康的潮汕文化:功夫茶、潮汕话等等。胶己人俱乐部致力于为广大在外的网球人提供运动爱好平台，除了汇聚潮汕人，更是汇聚同有团结有爱胶己人精神的同僚，提供活动组织，品牌合作，活动策划等，并极力将潮汕氛围,胶己人的力量带到参与者的身边。截至目前，俱乐部成员400+。@柠檬网球日常LOOK 欢迎更多小伙伴加入 也欢迎广大球友交流#网球#网球运动#网球搭子#球类运动日常#网球日常#潮汕人在深圳#深圳#胶己人俱乐部</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1040g00831alv3k1k723g4a7n01fnleeqdj65c80!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>汕头女生的嘴真严啊😭😭来见大世面了……！！！</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>#理水spa #走进理水#汕头#汕头按摩#汕头吃喝玩乐#汕头休闲好去处#汕头娱乐</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1040g008319bblpnf6a2g4a6upplri789nf5gpq8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>潮汕人的马尔代夫</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>发现了一个地方，潮汕人的马尔代夫，目前人还不会特别多，感觉还可以.. 门票是15块一张 （个人感觉很便宜） 我们去的时候是说有下去游泳才收门票。 我朋友提前去，租了一个茶桌，位置比较好，50元，配了茶具茶叶水炉，位置不会晒到太阳，有风的时候还凉快点，不然真的热成狗！挺适合带孩子玩… 风景还是挺美的，就不知道接下来人越来越多 服务能不能跟上.大家可以去体验体验 #游泳场#遛娃好去处#周末去哪玩#玩水#夏天标配#亲子游去哪儿好#暑假好去处#总有新玩法过夏天#推荐一个好地方#潮汕</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1040g2sg315ahk4ov1c2g5p5s1tsl7if3utjbrho!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>潮州📍晚上氛围感好去处‼️</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>年轻人的周末就应该好好放松我宣布这是潮州最有氛围感的地方‼️ 恨不得每周都来，现场的氛围真的太燃了 乐队也是演唱会级别的，会跟现场互动，音乐跟灯光的配合真的不要太太太完美了🥹🥹体验感拉满拍照也可以很出片📷随手一拍都是大片 适合女孩子微醺小聚放松心情的好去处，也有不含酒精的饮品 	 我们点的是某音上的啤酒12瓶套餐（图4）上面也有很多优惠套餐可以选择 📍潮 NEW LIVE新音乐现场（潮州电信路十亩市场二号门） 🈺时间下午8.00-3.00 #潮州探店#潮州打卡#潮州#潮州晚上好去处#潮州晚上喝酒#潮州晚上去哪玩#潮州氛围感#下班后的好去处#清吧天花板#潮州玩乐</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1040g008318arsi2h0q5g4bro1gl3fuk244ipfdg!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>2024春节结束了，但广东潮汕才刚刚开始</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>2024年的春节虽然已经谢幕，但广东潮汕地区的年俗活动才刚刚开始热闹起来！ 	 - 烧火龙 这可不是普通的龙，它是用竹篾、纸张和布料等制成的。 在龙的身躯里面放上了火药，点燃后，它就会舞动起来，火光四溅，场面非常壮观。 这个活动不仅仅是为了娱乐，更象征着驱邪避灾、祈求五谷丰登，是一种充满祈福意义的仪式。 	 - 英歌舞 这是一种融合了戏剧、舞蹈和武术的艺术形式，充满了阳刚之气。 在演绎的过程中，有慢板应该、种板英歌和快板英歌三种不同的节奏和风格， 每一种都有着独特的魅力，为英歌舞的表演增添了更多的魅力和可能性。 	 - 营老爷 人们会把庙里的神像请出来，放到神轿上， 由一群青壮年抬着，身后跟着仪仗队和鼓乐队， 在村庄里游行一圈，接受着村民的祈福。 最后，再把神像送回庙里，这也是一种表达敬意和祈福的传统仪式。 	 - 舞狮 舞狮是潮汕地区过年期间最具代表性的民俗活动之一。 人们会请舞狮队到家门口、店铺或村庄巡游，以驱邪祈福，迎接新年的到来。 	 - 这些潮汕地区的传统活动充满了浓厚的地方特色和文化底蕴， 让人不禁想起家乡的温馨和美好。 你还知道哪些潮汕地区的传统风俗？ 快来留言和我们分享吧！ 让我们一起讨论这些有趣的年俗活动， 共同感受广东潮汕地区的独特魅力！ #你参与过哪个潮汕传统活动呢？[投票]# #大家的春节#潮汕#潮汕人#潮汕春节#潮汕民俗#英歌舞#英歌舞把年味拉满了#潮汕美食#潮汕旅游#广东#大湾区#广东旅行#潮汕非遗文化#非遗文化</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1040g2sg30vkvrg0r5o005pdcr6bkp88hqgenpc0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>狂欢预警‼️牛马打工人有自己解压方法</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>约上三两好友放假就来这里哈皮！！吃喝玩乐俱全的解压好去处，过一个狂欢的放假模式🎉 #周末去哪儿#汕头好辰光休闲娱乐#汕头聚会好去处#汕头轰趴#汕头轰趴馆#汕头团建#汕头电玩#汕头桌球#汕头麻将#汕头娱乐#汕头周末#汕头吃喝玩乐#汕头休闲娱乐#轰趴聚会#汕头团建好去处</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1040g2sg31af03uji6mc05no85dcgblgdf08dqf8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>▫️好好玩啊🎤汕头KTV已经发展成这样了吗！</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>真的玩嗨了！！！下次还来！ 	 #年轻人的潮玩圣地#夜生活模式开启#年轻人的聚会空间#夜间好去处#KTV#汕头KTV#汕头娱乐#汕头唱歌#汕头包厢</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1040g008318ejkqnj3q4040ue7tmamp5ocfum1r8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>汕头这两天封神！！潮汕战舞太震撼！！</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>汕头一直给人一种经济特区又特困的感觉 20多年来发展一直比较缓慢 其中原因每个汕头人都知道吧！ 但这次两大盛会真的把全球的目光都拉回了潮汕 11月18-20号的小公园民俗文化盛会 既是欢迎全球胶几人回乡 又是对潮汕的未来展望！ 千返百舸历重山 归来还是潮汕人！ #两大盛会#潮汕人#小公园灯光秀#潮人故乡#潮汕旅游#潮汕英歌舞#潮汕习俗#英歌舞#中华战舞潮汕英歌已就位</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1040g2sg31ad13o1kn29g49vki5idhngf85ih0vg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>打卡属于潮汕自己的“阿勒泰”！超出片</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>📍直接导航JoJo自然牧场 🅿️：免费🆓 （停车场跟牧场是在一起的，先到的停车场，很空旷一片） 🎫：成人18💰 骑马40💰 喂小动物10💰 营业时间⏰：15:00-23:00 （夏天建议下午五点左右去，不会太热，还能看到落日和吹吹晚风） 	 里面还挺大的（附游客指南p7) 有大型儿童娱乐设施（滑滑梯等 ）、露营地、茶座（可租赁，茶具齐全）、帐篷🏕️…… 有很多小动物噢，可以跟小羊们🐑互动 投喂 ，还可以体验一把骑马的感觉～ 	 总之环境空气都很不错，适合带上老人小孩来游玩放松，拍照还很出片噢！快带上你的家人朋友们来体验一下叭～ 	 #拍照打卡#享受这悠闲时光#度假#汕头#小众打卡地#周末去哪玩#国庆旅游#出片圣地#澄海探店#旅游</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>1040g2sg317ccd8rg0q7g4a6gvs08q9egsn505g0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>潮汕情侣 | 挑战100个不同约会计划（2）</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Hi，欢迎来到兩只大閘蟹🦀的恋爱日记plog. 汕头居然🈶这么好看的大草坪🍃牧场，在收藏夹躺了很久，今天终于和小金同学👩🏻‍🤝‍👨🏼过来踩踩风、喂喂🐏～ 📍澄海·JoJo自然牧场 我们从汕头出发，自驾上高速🛣️到隆都，花费40分钟🕰️，不喜欢人多的🉑避开（周末、节假日）❌无需提前预约，直接售票处找工作人员购🎫 	 🟡由于时间没把握好，导致4️⃣点过去太阳直晒，毫无装备的我们暗自躲进帐篷⛺遮阳☀️ 门票与茶座🍵是区分开的‼️喂养动物又想露营🏕️，建议自带茶座（出租价格是偏贵的💰） 	 🟡进门🈶大型娱乐项目，合适带小朋友👶🏻一块玩，也可以投喂栅栏里的小🐏小🐴，顺便和真正的牛马开心得合张影✌🏻 	 🟡农场内氛围感满满，简单装饰ins风，5️⃣点傍晚落日，和男朋友在余晖下放松、惬意享受牧场吸氧效应💭 	 🟡在户外感受没有天花板🎐的自由，被大自然所治愈，和爱的人🧏🏻沉浸在秋日🍂“浪漫的季节里”🫧 	 #日常plog#情侣的日常#情侣约会好去处#打卡挑战#汕头澄海#澄海JOJO自然农场#情侣升温#官方爸爸求流量#小红书成长笔记薯条小助手#小红书队长</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>1040g2sg319sssi0anabg5ojmfcr8caukk396o88!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>秋夜｜在韩江边的农场</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>秋风吹起，潮汕舒适夜晚时光来临 	 最近周末的夜晚，开始带孩子们在农场里夜观。队伍越走人越多，大伙伴们也抑制不住好奇心悄悄入列。 白天的森林，午后的森林，叶子的背面也有蓬勃的生机。 而夜晚的农场呢？土壤与植株背后，是另一翻热闹活泼的风景。 如果你充满好奇，那夜观的惊喜会超乎你的预期。蝽、蝗虫、甲虫、瓢虫，蜗牛、长纺蛛、高脚蛛、螽斯、螳螂、各种蛙类等等。 当然不止于此，农作物的身姿，藤蔓的形态，在黑夜也许会变身。 	 当然远不止于此，当黑暗降临，光亮由你掌控。眼前上演的是交响演奏曲，是秋日建筑记，是举家搬迁之旅……#潮汕亲子#亲子农场#和大自然亲密接触#一起去户外</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1040g00831910of9c4k4g5pn5oecnc2qkl3f9h3o!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>潮汕情侣 | 挑战100个不同约会计划（11）</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Hi，欢迎来到兩只大閘蟹🦀的恋爱日记plog. 逃离繁华的城市地带，和小金同学来到潮州市山⛰️野湖畔中吸氧🫧，淡浮院隐藏于山上，山路盘旋而上，丝丝凉风吹拂脸旁🍃格外的舒服～ 	 📍砚峰书院·淡浮院 位于潮州市砚峰景区，黄山绿水间周围山峦连绵，以中华优秀传统文化📖为背景，承潮州文化古城灵气，是国家4️⃣A级旅游景区🇨🇳 古色古香的中式建筑和充满禅意的雕塑🗿，自然生态和人文集为①体，是拍照📸的打卡圣地💘 	 🟡开放时间截止到下午的5点多，我们自驾🚘过去刚好🕐点，门票🎫40💰❗️按照导航行驶①小段山⛰️路，看到“砚峰书院”大门直开进去（有设户外停车场🅿️）停好车立马去看世外桃源般的“江南水乡”🛶 	 🟡路过知鱼🐟桥下的喷泉⛲，喷雾缭绕整个周边，湖畔边立着石碑，石碑上雕刻着“综鞶帨于遥年”①语📜是引自唐代李善的句子，这句话的大意是：集天下精华在此，使它能够永远的传承🎞️，浓厚的历史气息，让人沉浸💭在这座独具特色的文化地标里…… 	 🟡坐落在砚峰山麓中的淡浮院，颇具古色古香风韵，坐东面西，依山傍水，前面是碧绿的夏湖🌿，门外挂的木刻对联“远望观云☁️，登高视野”，风景如同尤佳🏞️ 	 🟡潮商明贤饲端坐着名为《无》的雕像，坐得板正却脑子🧠和内心都被掏空，雕塑写着“只有掏空自己，才能看见智慧的光芒”，暗示着人要放下自我，消除固有的偏见，以便接纳新的思想和智慧🧐 	 🟡在世外桃源安静处，和男朋友享受着山清水秀、烟雨入江南美景🏔️ 	 #日常plog#情侣的日常#情侣约会好去处#打卡挑战#逃离闹市喧嚣#潮州#潮州淡浮院#官方爸爸求流量#小红书成长笔记薯条小助手#小红书队长</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1040g00831ag6kpvkna1g5ojmfcr8cauk54qgsp0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>潮州新开一座休闲娱乐按摩于一体的水都🤩</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>#吃喝玩乐#海鲜自助餐#度假酒店#沉浸式体验#潮州按摩#潮州探店#潮州打卡#潮州美食#潮州周末去哪儿#潮州遛娃</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1040g0083141d1rmpho5g5okkt6a8cpqq9t6ci00!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>听说还有人不知100多去哪里团建的👀👀</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>方案1⃣️：138元/人→花园烤肉➕定点射击➕游园打卡门票➕康体娱乐 方案2⃣️：138元/人→钓虾🦐体验➕真人CS野战/攻防箭射击竞技体验（二选一）➕游园打卡门票➕康体娱乐 方案3⃣️：158元/人→花园烤肉➕真人CS野战/攻防箭射击竞技体验（二选一）➕游园打卡门票➕康体娱乐 方案4⃣️：168元/人→围炉煮茶➕钓虾🦐体验➕真人CS野战/攻防箭射击竞技体验（二选一）➕游园打卡门票➕康体娱乐 方案5⃣️：178元/人→花园烤肉➕钓虾🦐体验➕游园打卡门票➕康体娱乐 方案6⃣️：198元/人→花园烤肉➕钓虾🦐体验➕真人CS野战/攻防箭射击竞技体验（二选一）➕游园打卡门票➕康体娱乐 方案7⃣️：198元/人→花园烤肉➕钓虾🦐体验➕趣味团建➕游园打卡门票➕康体娱乐 方案8⃣️：198元/人→花园烤肉➕4A景区门票➕卡丁车门票➕游园打卡门票➕康体娱乐 方案9⃣️：238元/人→花园烤肉➕钓虾🦐体验➕真人CS野战➕趣味团建➕游园打卡门票➕康体娱乐 康体娱乐：桌游、狼人杀、三国杀、谁是卧底、象棋围棋、手动麻 将、古代投壶、唱歌娱乐 钓虾体验：30分钟，含自己垂钓🎣的虾🦐 真人CS野战：45分钟 卡丁车：国际标准8分钟 趣味团建：90分钟 【参考菜单10人份) 安格斯西冷牛排120g*1份	酥脆黄金肉120g*1份 安格斯牛排120g*1份	纯肉培根120g*1份 安格斯板腱牛排120g*1份	黄金蛋饺6个“1份 芝士龙虾饼120g*1份	潮汕手打牛肉丸120g*1份 秘制鸡中翅3个*1份	淄博卷肉饼 飘香墨鱼饼120g*1份	千叶小豆腐 安格斯孜然香牛肉120g*2份	奶香小馒头 黑猪特圾五花肉120g*2份	低脂薯条 秘制黑椒鸡腿肉120g*2份	香辣毛豆 安格斯黑椒牛肉片120g*2份	水煮花生 黑猪雪花松板肉120g*2份	解膩裙带菜 韩式风味烤肠120g*2份	海藻沙拉 安格斯韩式香牛肉120g*1份	爽口泡菜 花特级梅花肉120g*1份	香脆花生米 #户外团建#拓展团建#公司团建#企业团建#团建聚会#深圳#深圳观澜</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1040g00831ahv2jca7c3g4brjth75c1egdlscb88!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>乡野小院🍃遛娃好去处</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>从潮州过去20分钟，磷溪一家古色古香的乡野小院，溪水的游泳池，里面有玩沙区，蹦蹦床， 夏天小孩子的快乐🍃 #潮州#乡野小院#乡野#潮州周末去哪儿#暑假#潮州吃喝玩乐#蹦床#户外游泳池#潮州带娃好去处#周末遛娃好去处</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1040g008315t921980q1g5nfvoqh095fkce1jdi0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>听说还有人不知100多去哪里团建的👀👀</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>方案1⃣️：138元/人→花园烤肉➕定点射击➕游园打卡门票➕康体娱乐 方案2⃣️：138元/人→钓虾🦐体验➕真人CS野战/攻防箭射击竞技体验（二选一）➕游园打卡门票➕康体娱乐 方案3⃣️：158元/人→花园烤肉➕真人CS野战/攻防箭射击竞技体验（二选一）➕游园打卡门票➕康体娱乐 方案4⃣️：168元/人→围炉煮茶➕钓虾🦐体验➕真人CS野战/攻防箭射击竞技体验（二选一）➕游园打卡门票➕康体娱乐 方案5⃣️：178元/人→花园烤肉➕钓虾🦐体验➕游园打卡门票➕康体娱乐 方案6⃣️：198元/人→花园烤肉➕钓虾🦐体验➕真人CS野战/攻防箭射击竞技体验（二选一）➕游园打卡门票➕康体娱乐 方案7⃣️：198元/人→花园烤肉➕钓虾🦐体验➕趣味团建➕游园打卡门票➕康体娱乐 方案8⃣️：198元/人→花园烤肉➕4A景区门票➕卡丁车门票➕游园打卡门票➕康体娱乐 方案9⃣️：238元/人→花园烤肉➕钓虾🦐体验➕真人CS野战➕趣味团建➕游园打卡门票➕康体娱乐 康体娱乐：桌游、狼人杀、三国杀、谁是卧底、象棋围棋、手动麻 将、古代投壶、唱歌娱乐 钓虾体验：30分钟，含自己垂钓🎣的虾🦐 真人CS野战：45分钟 卡丁车：国际标准8分钟 趣味团建：90分钟 【参考菜单10人份) 安格斯西冷牛排120g*1份	酥脆黄金肉120g*1份 安格斯牛排120g*1份	纯肉培根120g*1份 安格斯板腱牛排120g*1份	黄金蛋饺6个“1份 芝士龙虾饼120g*1份	潮汕手打牛肉丸120g*1份 秘制鸡中翅3个*1份	淄博卷肉饼 飘香墨鱼饼120g*1份	千叶小豆腐 安格斯孜然香牛肉120g*2份	奶香小馒头 黑猪特圾五花肉120g*2份	低脂薯条 秘制黑椒鸡腿肉120g*2份	香辣毛豆 安格斯黑椒牛肉片120g*2份	水煮花生 黑猪雪花松板肉120g*2份	解膩裙带菜 韩式风味烤肠120g*2份	海藻沙拉 安格斯韩式香牛肉120g*1份	爽口泡菜 花特级梅花肉120g*1份	香脆花生米 #户外团建#拓展团建#公司团建#企业团建#团建聚会#深圳#深圳观澜</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1040g00831ahv2jca7c3g4brjth75c1egdlscb88!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>乡野小院🍃遛娃好去处</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>从潮州过去20分钟，磷溪一家古色古香的乡野小院，溪水的游泳池，里面有玩沙区，蹦蹦床， 夏天小孩子的快乐🍃 #潮州#乡野小院#乡野#潮州周末去哪儿#暑假#潮州吃喝玩乐#蹦床#户外游泳池#潮州带娃好去处#周末遛娃好去处</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>1040g008315t921980q1g5nfvoqh095fkce1jdi0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>潮州！！可以呆一整天的穷鬼快乐屋🥹人均20➕</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>室内亲子乐园！！无人茶室！！贼好玩！！ 巨便宜！！早场才88💰就可以包场4小时！！ 场地宽敞！可以同时容纳8大8小🧑🧒 滑滑梯！海洋球！玩具！积木！攀爬网… 小孩可以尽兴玩耍🎈大人解放双手！！ 🉑叫外卖、喝茶、聊天💬不会枯燥～ 	 #本地人才知道的好地方#潮州新店速递#大小孩捣蛋趣这里#宝宝最爱的亲子游乐场#小孩的天堂#未来娱乐空间#消失在海洋球#儿童乐园#带娃#周末吃喝影像#母婴日常#让自己快乐才叫意义#潮州儿童乐园#无人茶室#i人充电站#潮州探店#潮州美食#潮州吃喝玩乐#潮州喝茶#周末去哪儿#潮州茶室#潮州下午茶#推荐一个好地方</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1040g2sg31a012dh7mqdg5p114pokici6robg3qg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>潮汕旅游三日游超详细攻略</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>😁计划来潮汕的宝子一定要看，潮汕本地人整理的潮汕保姆级旅游攻略 	 游玩路线安排 	 汕头：汕头小公园→开埠文化陈列馆→汕头旅社→西提公园→广场轮渡 	 南澳岛：长尾山灯塔→后宅镇→自然之门→蛴仔澎风车山→彩虹海 	 潮州：韩文公祠→泰佛殿→开元寺→牌坊街→广济桥灯光秀 #每天写一篇旅游攻略#旅游攻略#潮汕#周末去哪玩#人文景点分享#潮州旅行#汕头旅行#潮州#汕头#南澳岛</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1040g00831agg6tq5n21g5pjd7411onm7fajokdo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>潮汕两天一夜旅游攻略🔥｜特种兵citywalk</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>从东莞出发直奔潮汕开车🚗历经4小时 跟着我的路线走 不走回头路！（附美食➕攻略） Day1⃣️：潮州 📍西湖公园：公园不大 半小时能逛完 可以打卡同款“钱来钱来”表情包 📍颐园：潮州最美园林，拍照很出片 📍西马路：潮州地道小吃街，烟火气十足 📍镇海楼：打卡“潮州城府”，亮灯时间：18:00-23:00 📍广济楼：晚上亮灯超好看 拍照很出片 📍开元寺：打卡点“缘来元来”和爱心树就在这里 📍牌坊街：潮州古城的一条主街，很多美食 牛肉丸、茶叶这里都有得买这些特产 📍广济桥：每晚8点有灯光秀，门票20 📍泰佛殿：泰式风格建筑，门口有租衣服拍泰式照 有25/套衣服 📍韩文公祠：这是一座纪念唐代文学家韩愈的祠庙，是粤东地区文化底蕴深厚且品位优雅的旅游胜地 * 开放时间： 周二至周日，08:30至17:00 周一全天不开放 潮州古城的几个点都离得很近！可以边逛边拍！半天能逛完😁 Day2⃣️：汕头 📍汕头小公园 📍开埠文化陈列馆 📍汕头旅社 📍西堤公园 上面四个点都是很近的 都是很经典的景点 从小公园开始走 一直走到西堤公园 可以去到海边 吹吹海风 在海边散步也很舒服 就是风有点大 拍照不好拍😂 📍广场轮渡 全天都有 大约20分钟一班。最佳时间在5:30-7:30。 可以看到日落🌄全过程。 地址：汕头市金平区海滨路广场轮渡 船价：单程1元，门口扫乘车码付款即可进站，返程会有工作人员那二维码上前扫，也有贴在船墙上哦！ 时间：首班6:20-末班20:00 📍 妈屿岛 妈屿岛是“藏在”海湾大桥下的一个海岛小村🏝 有“日系小镰仓”之称 岛内不大，基本3小时就可以走完。这里是露营🏕️，游玩的好去处 以下是详细攻略↓ 顺序：海滩浴场——妈屿蓝➕栈道——陶铸亭——海边路➕渔船——涂鸦墙——放鸡山天后宫 乘车路线：车来了搜——妈屿岛专线公交 发车时间：7：25-19:40 自驾路线：高速费15元（含来回），记得走《妈屿岛专线》，有指示标。岛内有多处停车点，收费不贵 📍龙眼路美食街：很多美食 富有人间烟火气 还有疑问的宝子可以留言👇 #潮汕#潮汕美食#潮汕旅游#潮汕旅游攻略#潮汕两天一夜#潮州美食#潮州探店#汕头旅行#潮州古城</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>1040g2sg319vfn80tncm04ad2j26ke0fe50f7gjg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>比较👍推荐版｜潮汕超全18个遛娃圣地合集</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>#国庆逛吃日记#国庆我要慢慢玩#潮汕旅游#汕头周边游好去处#汕头遛娃好去处#农家乐#露营#海边 1️⃣和美·花海生态园 🎫：10/人（国庆期间），🅿️10元 常遛常新的一家生态园，四季花海，景色皆不同，遍地都是花，如童话世界般美好。 🧭：前美古村侨文化国家4A级旅游区 	 2️⃣JOJO自然牧场 🎫28/人，🅿️免费 超像国外的牧场，大片的青草地，白色的帐篷和木屋，超多萌宠，很治愈。 🧭澄海区055县道鸿乐农场北行220米 	 3️⃣红花小镇（冠世榴园） 🎫9.9/人，🅿️10元 绿化很好，环境优美，有无动力乐园，能喂鸽子🕊️，夜场也是很舒服。 🧭下北大道与云路乡道交叉口东300米路南 	 4️⃣欣荣农庄 🎫免费，🅿️免费 农庄主要分为露营区、乐园区、萌宠区、蔬果区四大主题，园区不是特别大，功能还算齐全。 🧭澄海区前美义门市场对面 	 ⭐️和美、JoJo、红花小镇、欣荣4个农庄都在澄海隆都，距离不远，大部分1.2米以下免门票。 	 5️⃣ 乡泮•耕读园 🎫10/人，🅿️免费，门票🉑抵园区部分项目 蓝天白云绿草地和群山，背靠莲花山的乡泮•耕读园会让人想到向云端。 🧭澄海区隆碧路 	 6️⃣八楼氧吧 🎫营地，🅿️免费 潮州新晋的森系露营地〝八楼氧吧”环境太美了，能露营烧烤喝茶🍵垂钓🎣。 🧭潮州市湘桥区铁铺镇八角楼村八楼氧吧 	 7️⃣乐奇生态观光园 🎫9.9/元，🅿️免费 竹子主题的亲子乐园，园区占地60亩，功能齐全，竹林清新自然，园区内项目较多，有免费和自费项目。 🧭潮州市潮安区江东镇樟厝洲村竹笋文化园 	 8️⃣鹿湖营地 🎫营地，🅿️免费 潮州意溪山顶上的营地，宝藏小众打卡地，有超平价49元茶座。 🧭潮州市瑞泰沙场南侧390米 	 9️⃣木和营地 🎫营地，🅿️免费 目前个人潮汕营地中的天花板，价格小贵，环境超好，很像童话小镇。 🧭湘桥区汕汾高速公路铁铺收费站附近 	 🔟东湖 海悦度假村 🎫免费，🅿️15元 泳场水域很干净，水清沙细，有粉色的海边长廊，海滩上有茶座，能自助烧烤。 🧭东湖路海悦度假村内 	 篇幅有限，后续见评论区</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1040g008318ee4ehb441g5nplcis09dft6ruk368!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>潮汕旅游攻略🌟熬夜整理✍🏻一篇说明白😘</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>潮汕现状⚠️近期去的姐妹尽早改行程✅这篇涵盖潮汕的景点🏝️交通和避雷指南😸如果你对潮汕完全不了解~可以先码住哦💕 #潮州#潮州旅游攻略#潮州旅游#潮州旅游必打卡#潮州旅行#潮州打卡#暑假潮州旅游#汕头旅游攻略 #游玩攻略 #旅游推荐 #旅游 #攻略#汕头#汕头旅游 #汕头攻略 #汕头旅行攻略 #汕头避雷#周末去哪玩#游玩攻略 #旅游攻略#令人难忘的景点@生活薯@户外薯@小红书成长笔记#周末去哪儿#不为打卡的旅行</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1040g2sg31a2evod86oc05op92p8ovlkmrl644a0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>潮汕两天一夜旅游攻略🔥｜特种兵citywalk</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>从东莞出发直奔潮汕开车🚗历经4小时 跟着我的路线走 不走回头路！（附美食➕攻略） Day1⃣️：潮州 📍西湖公园：公园不大 半小时能逛完 可以打卡同款“钱来钱来”表情包 📍颐园：潮州最美园林，拍照很出片 📍西马路：潮州地道小吃街，烟火气十足 📍镇海楼：打卡“潮州城府”，亮灯时间：18:00-23:00 📍广济楼：晚上亮灯超好看 拍照很出片 📍开元寺：打卡点“缘来元来”和爱心树就在这里 📍牌坊街：潮州古城的一条主街，很多美食 牛肉丸、茶叶这里都有得买这些特产 📍广济桥：每晚8点有灯光秀，门票20 📍泰佛殿：泰式风格建筑，门口有租衣服拍泰式照 有25/套衣服 📍韩文公祠：这是一座纪念唐代文学家韩愈的祠庙，是粤东地区文化底蕴深厚且品位优雅的旅游胜地 * 开放时间： 周二至周日，08:30至17:00 周一全天不开放 潮州古城的几个点都离得很近！可以边逛边拍！半天能逛完😁 Day2⃣️：汕头 📍汕头小公园 📍开埠文化陈列馆 📍汕头旅社 📍西堤公园 上面四个点都是很近的 都是很经典的景点 从小公园开始走 一直走到西堤公园 可以去到海边 吹吹海风 在海边散步也很舒服 就是风有点大 拍照不好拍😂 📍广场轮渡 全天都有 大约20分钟一班。最佳时间在5:30-7:30。 可以看到日落🌄全过程。 地址：汕头市金平区海滨路广场轮渡 船价：单程1元，门口扫乘车码付款即可进站，返程会有工作人员那二维码上前扫，也有贴在船墙上哦！ 时间：首班6:20-末班20:00 📍 妈屿岛 妈屿岛是“藏在”海湾大桥下的一个海岛小村🏝 有“日系小镰仓”之称 岛内不大，基本3小时就可以走完。这里是露营🏕️，游玩的好去处 以下是详细攻略↓ 顺序：海滩浴场——妈屿蓝➕栈道——陶铸亭——海边路➕渔船——涂鸦墙——放鸡山天后宫 乘车路线：车来了搜——妈屿岛专线公交 发车时间：7：25-19:40 自驾路线：高速费15元（含来回），记得走《妈屿岛专线》，有指示标。岛内有多处停车点，收费不贵 📍龙眼路美食街：很多美食 富有人间烟火气 还有疑问的宝子可以留言👇 #潮汕#潮汕美食#潮汕旅游#潮汕旅游攻略#潮汕两天一夜#潮州美食#潮州探店#汕头旅行#潮州古城</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>1040g2sg319vfn80tncm04ad2j26ke0fe50f7gjg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>潮州年轻人的社交新模式</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>一位薯友问我组建这个社群的目的，其实qun主我以前也是i人，因为工作原因要不断跟陌生人打交道，每次都是硬着头皮逼自己去适应，当面对各种挑战真的能成长不少我建议社恐的朋友更应该跳出熟悉的圈子，收获新视觉，新朋友…… 我们不定期会组织各种正能量轻社交活动 	 10🈷️20会组织一场大学生返乡潮州就业交流活动，有兴趣丝瓦#社交活动#团建聚会#线下活动#周末去哪儿浪#休闲娱乐#潮州交友#大学生返家乡#潮州同城交友#潮州青年#圆桌派</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1040g008318t9gs13ju0g42kvtavjeqcd0ckto68!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>真实潮州测评：远不止只有英歌舞！</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>来潮州只知道吃吃喝喝？那你可就亏大啦！除了美食众多，这里还是国家非遗名城，来这儿怎么能不体验几个非遗项目呢！ 	 ✨英歌舞 过年最强氛围组！戏曲、舞蹈、武术，表演者们边跳边吼，锣鼓喧天人山人海，集祈福、驱邪一体，现场看超燃超震撼！ 📆表演时间：时间地点不固定，正月里活动最多🧨，游神、英歌舞、笛套音乐在元宵节前后达到顶峰💃，一般从初一持续到十五。可关注普宁发布、潮阳生活通、汕头橄榄台等公众平台获取相关活动信息📝。 🚩表演地点：集中在普宁、潮阳。地点在各村的庙宇、祠堂，老爷宫等。 💃观赏方式：推荐看巡游，定点跟着表演队伍出发，或者提前在某个点等队伍来跟上。巡演一般会经过当地有名的庙宇和老宅⛩，可以近距离感受当地民俗~ 	 ✨嵌瓷 八仙过海，封神榜，西游记，地方戏...潮汕有中国最热闹的屋顶！用瓷片拼接的人物花鸟活灵活现，色彩丰富鲜亮夺目~存心善堂的屋顶上可以看到樊梨花斩杨凡、薛仁贵救主、姜子牙点将等各种戏剧故事。 🚩推荐地点： 1.汕头-存心善堂、观音庙 📆开放时间：09:00-21:00 🚗交通：打车到“汕头消防史馆”，旁边即是“存心善堂”，再步行到“老妈宫戏台”，对面就是妈祖庙、天后宫关帝庙 2.潮州-青龙古庙、天后宫（东门街） 📆开放时间：08:00-20:00 🚗交通：打车或公交至潮州市湘桥区南堤路，从古城往返大约3公里 	 ✨手拉壶 拉胚、修胚、钻孔、压光、盖章...亲手制作一只属于自己的手拉壶，用一把壶冲出茶叶的清香。一壶泉水、一撮茶叶、一套茶具，与三两好友浅斟谈家长里短，感受潮州传统的生活方式~ 🚩推荐地点：潮州-裕德堂 📆开放时间： 9:00-17:30（17:00前入场），节假日无休 🎫购票方式：🆓免费，但需在线上提前1天预约，方便老师准备体验材料 	 ✨潮剧 🚩推荐地点：潮州-外江梨园 不仅能品尝正宗潮州工夫茶，还能欣赏经典潮剧演出🎭，甚至能免费换装上台和潮剧老师互动🙌，深度学习体验潮州传统文化。现场展出了潮绣、潮州彩瓷、潮州木雕、麦秆画、潮州手拉壶等非遗作品，每一件都是大师之作~ 📆表演时间：每周六日及节假日下午 3:00 - 5:00 🎫购票方式：潮剧可现场预约，喝茶听戏🍵需要提前网上预定 #潮州旅行  #潮州攻略  #非物质文化遗产  #英歌舞</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>1040g34o319gd5ju4mm0g5o5qu3a0bple3i1c18o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>在潮州📍也🈶🇹🇭“萨瓦迪卡”马杀鸡啦啦啦～</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>#100家探店计划#潮州按摩#潮州探店#潮州打卡#泰式按摩#泰国马杀鸡#放松解压好去处#年轻人的新型放松方式#旅行吃喝玩乐#周末去哪儿</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>1040g2sg3174g68nn44dg4a5kndm4v3mebshu9oo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>潮州一日游citywalk攻略</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>✅路线安排： 牌坊街→开元寺→广济楼→广济桥→韩文公祠→泰佛殿→潮州西湖→广济桥灯光秀 #每天写一篇旅游攻略#潮汕的烟火气#潮汕#游玩攻略#旅游攻略#值得N刷的宝藏出游地#城市文化和旅游#本地人做的攻略#潮州#潮州旅行</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>1040g00831abb7vu0n21g5pjd7411onm79dche10!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>潮汕情侣 | 挑战100个不同约会计划（1）</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Hi，欢迎来到兩只大閘蟹🦀的恋爱日记plog. 情侣💏间0️⃣成本约会快乐，是带她/他去感受潮汕文化的浪漫气息，见证东方美学、非遗文化📖 	 📍臻宝博物馆 我们是提前在xiao🍊序上预约，🎫目前免费，虽然小众但视觉上却大受震撼🔮 	 🟡共分为三层，六个展厅“以花丝为承 护传统新生”贯穿整条动线🧵，花丝镶嵌技艺-黄鹤楼、九龙🐉壁、琳琅满目，简直富贵迷人眼👀‼️ 	 🟡沉浸在花丝世界里，男朋友也不忘同步记录着，人赋予镜头📷情感💕，随之慢慢升温🌡️ 	 🟡除了花丝工艺，还有许多佩戴饰品，在这里知道点翠、压襟，赞叹古人的智慧以及审美👍 包括成人礼、婚假👰🏻‍♀️🤵🏻习俗，与珠宝巧妙融合，加上潮汕婚俗，很有地方特色😍 	 🟡翻看男朋友相册，“喜”提人生照片（P16）真实矮趣v☺️（潮汕话）假装成大人的模样～ 🤭是不是i人都对镜头过敏呢⁉️我偏不信，拉着小金同学参与，记录美好的瞬间📸 	 #日常plog#情侣的日常#情侣约会好去处#打卡挑战#汕头#汕头臻宝博物馆#情侣升温#官方爸爸求流量#小红书成长笔记薯条小助手#小红书队长</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1040g008319qm82jjnc1g5ojmfcr8cauk1ra657o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>《潮州两天一晚》特种兵不绕路保姆级攻略！</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>【具体行程】 day1 牌坊街➡️开元寺➡️广济楼➡️广济桥➡️镇海楼➡️西马路 day2 西湖公园➡️青龙古庙➡️泰佛殿➡️韩文公祠➡慧如公园➡️️龙湖古寨 【关于美食】 必打卡的美食：牛肉火锅、肠粉、砂锅粥、虾枣、糯米糍、潮州菜等等 【关于景点】 1⃣️牌坊街：免费，全天开放，一条很有特色的古文化街，位于古城中心，传统小吃比较多 2⃣️开元寺：有粤东第一古刹之称，结合了不同的建筑风格，门口可以领三炷香 3⃣️广济楼：免费全天开放，潮州地标性建筑，古色古香的城楼，晚上夜景更好看 4⃣️广济桥：就在广济楼旁边，参观免费，过桥20r，晚上有灯光秀 5⃣️镇海楼：“潮州城府”，潮州地标建筑之一 6⃣️西马路：全天开放，店铺很多，潮州特色小吃聚集地 7⃣️西湖公园：市区内的一处自然景观，公园不大景色很美 8⃣️慧如公园：就在青龙古庙对面，可以一起打卡 9⃣️青龙古庙：避开人群的喧杂，全天开放，免费，建议晚上去 1⃣️0⃣️泰佛殿：潮州版泰国皇宫，在潮州就能领略泰国风情 1⃣️1⃣️韩文公祠：为了纪念韩愈修建的祠宇，需要提前预约，免费参观周一闭馆 1⃣️2⃣️龙湖古寨：广州十大最美古村落，见证了潮汕地区的历史变迁 【避坑指南】 1⃣️潮州景点集中,可以选择步行,会走很多路，千万不要穿高跟鞋 2⃣️牌坊街、西马路、义安路、昌黎路等等几条街是连起来的可以慢慢逛 3⃣️出高铁站的时候会有很多司机拉客,千万不要被欺骗了，不要坐机场、高铁站门口的黑车，很容易被宰 4⃣️潮汕只有一个揭阳国际机场,机场不大,进站和出站都很好找 5⃣️肠胃不好的小伙伴第一次吃生腌千万不要贪吃，也不要空腹吃,吃之前可以吃点其他东西打底 6⃣️在潮州骑共享电动最方便，自驾容易堵车和难找车位!远的地方叫车! 7⃣️广济楼广济桥是连在一起的!广济桥下午5点停止售票，下午5:30开始拆船，可以在江边提前占好位置看拆桥! #潮州攻略 #潮州 #潮州美食 #潮州旅游 #潮州旅行 #潮州旅游必打卡 #游玩攻略</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>1040g2sg3180nm3dk0s9g49q330drfihffkijh3g!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>潮州汕头南澳岛4天3夜攻略|无脑直接抄作业</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>家人们!!第一次来潮汕真的要认真做攻略 来了几次潮汕 平心而论真的很容易踩坑 以下是男友熬夜整理的详细攻略 可以无脑直接抄作业！ - 🌳必去景点 潮州古城：千年的文化古城，一个充足人间 烟火气息的地方 汕头老市区：老城特色骑楼建筑，复古民国风 拉满 潮汕博物馆：探索潮汕非遗文化历史，博物馆 就是的入口 南澳岛青澳湾：这里的海水清澈无污染，沙 滩细腻，是个玩水娱乐的好地方 - 🏠关于住宿 汕头市区：建议住汕头万象城附近吃 住行都的非常方便 南澳岛：后宅镇日落平价民宿多适合穷游党：青澳湾日出高端海景民宿多适合度假党 潮州市区：建议住在潮州古城附近比较方便 - 🍜关于美食 ✔️汕头: 阿娟牛肉店·手打牛肉丸·现学现卖 非遗·苏南勤记卤鹅 楼下潮好食 熙福茶颂FUUUtea 海上弄堂里 屋里甜汤 成川茶治 初茗潮茶 老胡甜汤 - ✔️潮州: 广场阿灿生腌 顺顺糯米铺（牌坊街店） 蔡得好卤水火锅 刘卜卤鹅 府城四爷 潮州官塘合兴牛肉 #潮汕旅游#潮汕攻略#潮汕美食#我是秋冬美食高需求人格#潮汕特产#潮汕牛肉火锅#潮汕生腌#我的宝藏美食集#我在小红书炫火锅学#吃下这口烟火气</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>1040g2sg31a4ofur6ng7g5p4vo0hap8emrib2blo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>100家探店计划（17/100）潮newlive新音乐现场</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>🏠：潮州new live新音乐现场 📍：潮州电信路十亩市场内b17-19店面 ⏰：20:00-次日3:00 	 这真的是live house吧！对于我一个不喝酒但喜欢唱歌的人来说，这里真的太快乐了！！！ 跟以往去的任何酒吧都不一样，这里的舞台好大，氛围超级好！！因为我不喜欢喝酒，所以一般我不喜欢去酒吧这种地方的，但是这里真的不一样，不一样！大舞台live，各种耳熟能详的歌，我真的全程跟着一起唱一起嗨，中间穿插dmc打碟，所以也就不会一直都是dj，所以这样就感觉很舒服！不喜欢都是bongbongbong的hhh！ 然后还送了我们两只小熊🐻！我们的位置是在舞台正对面，是有较高的低消的，然后🐛值有🈶惠，还送了三瓶香槟🍾（具体是怎样的🈶惠，我也不清楚，因为不是我还的钱#潮州探店#潮州吃喝玩乐#潮州酒吧#潮州酒吧好去处#潮州夜生活#潮州live house#潮州酒馆#潮州打卡</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>1040g008315n56s9k1a405n5na79kk77e3jrft6o!nd_dft_wlteh_webp_3.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>#娱乐</t>
         </is>
       </c>
     </row>
